--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_26.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_26.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Takuma Watanabe</t>
+          <t>Kana Fujiwara</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Takuma Watanabe</t>
+          <t>Kana Fujiwara</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Takuma Watanabe</t>
+          <t>Kana Fujiwara</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Takuma Watanabe</t>
+          <t>Kana Fujiwara</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Takuma Watanabe</t>
+          <t>Kana Fujiwara</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Takuma Watanabe</t>
+          <t>Kana Fujiwara</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Takuma Watanabe</t>
+          <t>Kana Fujiwara</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Takuma Watanabe</t>
+          <t>Kana Fujiwara</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Takuma Watanabe</t>
+          <t>Kana Fujiwara</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Takuma Watanabe</t>
+          <t>Kana Fujiwara</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Takuma Watanabe</t>
+          <t>Kana Fujiwara</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Takuma Watanabe</t>
+          <t>Kana Fujiwara</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Takuma Watanabe</t>
+          <t>Kana Fujiwara</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Takuma Watanabe</t>
+          <t>Kana Fujiwara</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Takuma Watanabe</t>
+          <t>Kana Fujiwara</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
